--- a/assets/sp_cetesb_infoaguas/excel/PARB02800.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/PARB02800.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,13 +506,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.19000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,13 +536,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.60000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,7 +566,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -568,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,13 +596,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.64000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -614,17 +622,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>1.64000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -644,13 +648,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.34000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -670,22 +678,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>0.17000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -700,13 +704,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.42000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -726,7 +734,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -736,7 +744,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -756,17 +764,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>1.72000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -786,17 +790,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>0.79000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -816,18 +816,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -842,22 +846,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>720.00000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -872,13 +872,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.64000000</t>
+          <t>19.00000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -898,22 +898,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -928,18 +924,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -954,13 +950,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.17000000</t>
+          <t>4.90000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -980,7 +976,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Cádmio Total</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1010,18 +1006,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>129.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1036,18 +1036,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.72000000</t>
+          <t>129.00000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1062,18 +1062,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.79000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1118,17 +1118,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>7.64000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1148,18 +1144,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>720.00000000</t>
+          <t>1.42000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1174,13 +1170,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19.00000000</t>
+          <t>5.51000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1200,7 +1196,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1210,12 +1206,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1230,13 +1226,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>114.00000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1256,18 +1252,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1282,18 +1278,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12.80000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1308,13 +1304,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.90000000</t>
+          <t>1.34000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1360,13 +1356,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.51000000</t>
+          <t>84.00000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1386,17 +1382,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>13.90000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1416,13 +1408,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13.90000000</t>
+          <t>0.59000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1442,13 +1434,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>114.00000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1468,13 +1460,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.59000000</t>
+          <t>12.80000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1494,17 +1486,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>4.19000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1524,13 +1512,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bário Total</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1550,18 +1542,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>3.60000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1576,13 +1568,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>84.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1602,18 +1598,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>6.50000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1628,18 +1624,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6.50000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1680,22 +1680,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>124.00000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1710,18 +1706,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1736,18 +1732,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.59000000</t>
+          <t>6.70000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1788,18 +1784,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1814,18 +1810,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>1.73000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1840,18 +1836,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>124.00000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1866,18 +1866,18 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13.40000000</t>
+          <t>440.00000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1922,13 +1922,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.73000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1948,17 +1952,13 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>13.40000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1978,18 +1978,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2004,13 +2008,13 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>4.70000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2030,13 +2034,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4.70000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2056,18 +2064,18 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.70000000</t>
+          <t>1.10000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2082,13 +2090,13 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8.11000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2108,7 +2116,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2118,7 +2126,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2138,14 +2146,10 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.10000000</t>
@@ -2168,18 +2172,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>440.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2194,13 +2198,13 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.10000000</t>
+          <t>4.59000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2220,17 +2224,13 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>8.11000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2250,13 +2250,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.61000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2276,18 +2280,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>600.00000000</t>
+          <t>10.00000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2302,17 +2306,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>3.54000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2332,13 +2332,13 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2358,18 +2358,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>32.00000000</t>
+          <t>5.20000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2384,22 +2384,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>124.00000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2414,18 +2410,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Níquel Total</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5.80000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2440,13 +2436,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>19.70000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2466,13 +2466,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.54000000</t>
+          <t>1.72000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2492,18 +2492,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2518,13 +2522,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2544,13 +2552,13 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5.20000000</t>
+          <t>4.05000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2570,13 +2578,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2596,13 +2608,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sódio</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>12.30000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2622,7 +2638,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2632,7 +2648,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2652,13 +2668,13 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.72000000</t>
+          <t>5.34000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2678,13 +2694,13 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5.34000000</t>
+          <t>1.56000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2704,13 +2720,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.41000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2730,22 +2750,18 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2760,17 +2776,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2790,17 +2802,13 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>0.14000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2820,7 +2828,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2830,7 +2838,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2850,7 +2858,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Chumbo Total</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2860,7 +2868,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2880,18 +2888,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>21.00000000</t>
+          <t>19.70000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2906,17 +2914,13 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>1.41000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -2936,17 +2940,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.61000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2996,18 +2996,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.56000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3022,13 +3022,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.14000000</t>
+          <t>12.30000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3048,18 +3048,18 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>600.00000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3074,18 +3074,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.17000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3130,18 +3134,18 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.33000000</t>
+          <t>21.00000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3182,13 +3186,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bário Total</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3208,18 +3216,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>124.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3234,18 +3246,18 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4.05000000</t>
+          <t>32.00000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3272,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3270,7 +3282,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3290,18 +3302,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.33000000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3316,22 +3328,18 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3346,22 +3354,18 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>5.80000000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3380,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3386,7 +3390,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3406,17 +3410,13 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.17000000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3436,22 +3436,18 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3466,17 +3462,13 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>4.17000000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3496,13 +3488,13 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.01000000</t>
+          <t>1.21000000</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3522,7 +3514,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3532,7 +3524,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3552,13 +3544,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>8.04000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3578,22 +3574,18 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3600,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3638,17 +3630,13 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>3.83000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3668,17 +3656,13 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>7.44000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3698,13 +3682,13 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.37000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3724,17 +3708,13 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3754,7 +3734,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3764,7 +3744,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3784,18 +3764,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3810,18 +3794,18 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Alumínio Dissolvido</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>0.24000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3836,13 +3820,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -3862,17 +3850,13 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>14.50000000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3892,13 +3876,13 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.21000000</t>
+          <t>1.01000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -3918,17 +3902,13 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.37000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -3948,18 +3928,18 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>7.44000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3974,18 +3954,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4000,18 +3984,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>86.00000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4026,18 +4014,18 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>3.56000000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4052,18 +4040,18 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>19.00000000</t>
+          <t>3.56000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4078,18 +4066,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4104,13 +4096,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3.83000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4130,22 +4126,18 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4152,13 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>8.04000000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4190,18 +4178,18 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4216,13 +4204,13 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>3.08000000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4242,18 +4230,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4268,17 +4260,13 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>5.70000000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4298,13 +4286,13 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0.61000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4324,13 +4312,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4.17000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4350,22 +4342,18 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>86.00000000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4380,13 +4368,17 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>14.50000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -4406,13 +4398,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0.24000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -4432,22 +4428,18 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>580.00000000</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4462,13 +4454,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0.79000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4488,17 +4484,13 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.61000000</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -4518,13 +4510,13 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.79000000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4544,18 +4536,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>5.70000000</t>
+          <t>19.00000000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4570,13 +4562,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>3.08000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4596,18 +4592,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>580.00000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4622,18 +4622,18 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>19.00000000</t>
+          <t>7100.00000000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4648,18 +4648,18 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.78000000</t>
+          <t>6.90000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4674,13 +4674,13 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0.75000000</t>
+          <t>6.34000000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -4700,18 +4700,18 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>42.00000000</t>
+          <t>5.84000000</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4726,13 +4726,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5.84000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -4752,18 +4756,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4778,22 +4786,18 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>19.00000000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4838,22 +4842,18 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>42.00000000</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4894,18 +4894,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>76.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4920,13 +4924,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>6.34000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -4976,18 +4984,18 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>0.75000000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5028,22 +5036,18 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5084,18 +5088,18 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>7100.00000000</t>
+          <t>5.78000000</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5110,18 +5114,18 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4.00000000</t>
+          <t>76.00000000</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -5136,18 +5140,18 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5162,18 +5166,18 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>6.90000000</t>
+          <t>4.00000000</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5188,22 +5192,18 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5218,13 +5218,13 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>0.22000000</t>
+          <t>5.10000000</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5270,18 +5270,18 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>29.00000000</t>
+          <t>0.29000000</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5296,18 +5296,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>1880.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5322,13 +5326,13 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>6.58000000</t>
+          <t>4.63000000</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5348,13 +5352,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>3.34000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5374,17 +5382,13 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -5404,7 +5408,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5414,7 +5418,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -5434,7 +5438,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Zinco Total</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5464,7 +5468,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5474,12 +5478,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -5494,13 +5498,13 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Alumínio Dissolvido</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>62.00000000</t>
+          <t>0.22000000</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -5520,17 +5524,13 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>62.00000000</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -5580,18 +5580,18 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -5636,13 +5636,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -5662,18 +5666,18 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5688,13 +5692,13 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>4.63000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -5714,22 +5718,18 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>33.00000000</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -5744,18 +5744,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>25.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5770,18 +5774,18 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>17.80000000</t>
+          <t>29.00000000</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -5796,13 +5800,13 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>0.59000000</t>
+          <t>3.34000000</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -5822,17 +5826,13 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>1.09000000</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -5852,18 +5852,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>33.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5878,13 +5882,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -5904,18 +5912,18 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>9.25000000</t>
+          <t>1880.00000000</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5938,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5940,7 +5948,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -5960,13 +5968,13 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>8.94000000</t>
+          <t>9.25000000</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -5986,7 +5994,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5996,12 +6004,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6024,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6026,7 +6034,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6046,13 +6054,17 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>5.10000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6072,22 +6084,18 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -6102,18 +6110,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Bário Total</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -6128,13 +6140,13 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>1.09000000</t>
+          <t>17.80000000</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -6154,17 +6166,13 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>6.58000000</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -6184,17 +6192,13 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>8.94000000</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -6214,7 +6218,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Cádmio Total</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6224,7 +6228,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -6244,13 +6248,13 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>0.29000000</t>
+          <t>0.59000000</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -6270,7 +6274,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>Chumbo Total</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6280,7 +6284,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -6326,22 +6330,18 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6356,13 +6356,13 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -6382,18 +6382,18 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>25.00000000</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6408,13 +6408,17 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>4.70000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -6434,18 +6438,18 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>4.45000000</t>
+          <t>22.00000000</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6460,17 +6464,13 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -6490,18 +6490,18 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>3.74000000</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6516,13 +6516,13 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>4.78000000</t>
+          <t>1.97000000</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -6542,13 +6542,17 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2.90000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -6568,17 +6572,13 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.23000000</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -6598,13 +6598,17 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>164.00000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -6624,13 +6628,13 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>10.00000000</t>
+          <t>0.02600000</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -6650,7 +6654,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6660,7 +6664,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -6680,17 +6684,13 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>10.00000000</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -6710,13 +6710,13 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Alumínio Dissolvido</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>0.08000000</t>
+          <t>0.23000000</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -6736,18 +6736,18 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6762,13 +6762,13 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>0.23000000</t>
+          <t>0.43000000</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -6788,17 +6788,13 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -6818,18 +6814,18 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>62.00000000</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -6844,13 +6840,13 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>2.24000000</t>
+          <t>0.43000000</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -6870,22 +6866,18 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6900,13 +6892,17 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>1.02000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -6926,7 +6922,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6936,12 +6932,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>1.50000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6956,18 +6952,18 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>62.00000000</t>
+          <t>1960.00000000</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -6982,18 +6978,18 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>1960.00000000</t>
+          <t>4.45000000</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7008,18 +7004,18 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>14.40000000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -7034,7 +7030,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7044,12 +7040,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>1.50000000</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -7064,13 +7060,13 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>4.78000000</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -7090,13 +7086,13 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>3.74000000</t>
+          <t>3.47000000</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -7116,13 +7112,17 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>0.43000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -7142,17 +7142,13 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>1.02000000</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -7172,13 +7168,17 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Bário Total</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -7198,18 +7198,18 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>140.00000000</t>
+          <t>14.40000000</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7224,13 +7224,13 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>1.23000000</t>
+          <t>2.24000000</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Níquel Total</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -7280,18 +7280,18 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -7336,18 +7336,18 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>2.29000000</t>
+          <t>2.90000000</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Zinco Total</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -7392,18 +7392,18 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>1.97000000</t>
+          <t>2.29000000</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -7418,22 +7418,18 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>140.00000000</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -7448,18 +7444,18 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.08000000</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7474,13 +7470,13 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>0.02600000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -7500,18 +7496,22 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr"/>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>22.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7526,13 +7526,13 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>3.47000000</t>
+          <t>164.00000000</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -7552,13 +7552,13 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>0.43000000</t>
+          <t>4.70000000</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -7578,13 +7578,13 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>1.42000000</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -7604,18 +7604,22 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7630,17 +7634,13 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>2.91000000</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -7660,17 +7660,13 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.60000000</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -7716,18 +7712,18 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7742,13 +7738,17 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>0.60000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -7768,22 +7768,18 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Bário Total</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>Marrom</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7794,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7808,7 +7804,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -7828,7 +7824,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>Cobre Dissolvido</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7858,17 +7854,13 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.29000000</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -7888,22 +7880,18 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7918,13 +7906,13 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>1.78000000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -7944,18 +7932,22 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Marrom</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7970,13 +7962,17 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>1.08000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -7996,13 +7992,13 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>0.86000000</t>
+          <t>2.54000000</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -8022,18 +8018,18 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>3000.00000000</t>
+          <t>49.00000000</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -8048,18 +8044,18 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>49.00000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8074,13 +8070,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>14.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -8100,17 +8100,13 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>3.84000000</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -8130,17 +8126,13 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>1.08000000</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -8160,18 +8152,22 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>3.84000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8182,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Alumínio Dissolvido</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8196,12 +8192,12 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8216,17 +8212,13 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>1.13000000</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -8246,7 +8238,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8256,7 +8248,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -8276,17 +8268,13 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>0.86000000</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -8306,17 +8294,13 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>14.00000000</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -8336,13 +8320,17 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Sódio</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>2.91000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -8362,13 +8350,17 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr"/>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>3.27000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -8388,13 +8380,13 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>2.54000000</t>
+          <t>3.27000000</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -8414,13 +8406,17 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>1.42000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -8440,7 +8436,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8450,12 +8446,12 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -8470,13 +8466,17 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -8526,18 +8526,18 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>6.60000000</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -8552,13 +8552,17 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -8578,13 +8582,17 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>0.29000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -8604,18 +8612,18 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
-          <t>1.13000000</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8638,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Crômio Total</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8640,7 +8648,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -8660,22 +8668,18 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>3000.00000000</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -8690,7 +8694,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8700,12 +8704,12 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8720,22 +8724,18 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -8750,16 +8750,3526 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr">
         <is>
+          <t>1.78000000</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Marrom</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>5.40000000</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>2.75000000</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>12.80000000</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>1.76000000</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>8.30000000</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>0.23000000</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr">
+        <is>
           <t>6.60000000</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>1160.00000000</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>8.57000000</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>5.50000000</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>0.34000000</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>38.00000000</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>1.03000000</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>24.00000000</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>0.92000000</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>81.00000000</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>22.00000000</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>0.72000000</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>0.23000000</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>0.56000000</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>3.44000000</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>5.60000000</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44356.49305555555</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>0.19000000</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>19.00000000</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>34.00000000</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>22.00000000</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>56.00000000</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>5.20000000</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>1.67000000</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>8.85000000</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>0.83000000</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>70.00000000</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>0.64000000</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>0.13000000</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>0.07000000</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>3.10000000</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>3.02000000</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>6.60000000</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>1.03000000</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>0.67000000</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>0.36000000</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>8.10000000</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2.18000000</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Marrom</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>6.90000000</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>0.58000000</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2800.00000000</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>0.28000000</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>44419.45138888889</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>11.80000000</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2400.00000000</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>0.12000000</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>4.07000000</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>15.40000000</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>1.28000000</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>1.53000000</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>6.70000000</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>0.67000000</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>39.00000000</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>5.50000000</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>1.26000000</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>8.80000000</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>0.22000000</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>3.03000000</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>5.20000000</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Incolor</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>0.04000000</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>1.19000000</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>0.14000000</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>87.00000000</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>0.89000000</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>23.00000000</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>1.15000000</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>9.50000000</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>28.00000000</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>PARB02800</t>
+        </is>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>44482.55555555555</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>6.90000000</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
